--- a/Hello.xlsx
+++ b/Hello.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NNHU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF282B-29E9-494E-B769-2E1F0724E7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96218EC6-573F-44BB-966E-D5C66CBADDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3906,7 +3906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3922,6 +3922,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3945,15 +3951,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4314,8 +4321,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,20 +4410,20 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -4427,13 +4434,13 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1270</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
